--- a/Rough.xlsx
+++ b/Rough.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>You</t>
+    <t>DineshQA</t>
   </si>
 </sst>
 </file>
@@ -364,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -372,22 +366,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
